--- a/laravel/resources/xlsx/Студенты.xlsx
+++ b/laravel/resources/xlsx/Студенты.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programmers\OpenServer\domains\sportlife\laravel\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B615FE8-E912-432E-85CF-2A599DF38F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0121266-3549-41C1-A2B2-A9805FD1F8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,19 +37,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,9 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -359,14 +351,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -384,15 +376,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>190607</v>
       </c>
       <c r="C2">
-        <v>31052001</v>
+        <v>29052001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>